--- a/biology/Zoologie/Decametra/Decametra.xlsx
+++ b/biology/Zoologie/Decametra/Decametra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decametra est un genre de crinoïdes de la famille des Colobometridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de colobométridés à 10 bras, avec des pinnules proximales pas spécialement différentes des autres (contrairement aux Cenometra), mais les secondes quand même légèrement plus grandes que les premières. Les cirrhes sont rarement plus de 30, et portent une rangée (parfois fusionnée) de tubercules sur leur face proximale[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de colobométridés à 10 bras, avec des pinnules proximales pas spécialement différentes des autres (contrairement aux Cenometra), mais les secondes quand même légèrement plus grandes que les premières. Les cirrhes sont rarement plus de 30, et portent une rangée (parfois fusionnée) de tubercules sur leur face proximale. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 mars 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 mars 2015) :
 Decametra alaudae AH Clark, 1911
 Decametra arabica AH Clark, 1912
 Decametra brevicirra (AH Clark, 1912)
